--- a/unity_2019_2_0a11/Assets/StreamingAssets/excel.xlsx
+++ b/unity_2019_2_0a11/Assets/StreamingAssets/excel.xlsx
@@ -8,7 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="テストＪＳＯＮ" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="convert" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="json_test_1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="json_test_2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="enum_item_type_1" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="enum_item_type_2" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,38 +24,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="65">
   <si>
     <t xml:space="preserve">[root]</t>
   </si>
   <si>
-    <t xml:space="preserve">test_json</t>
+    <t xml:space="preserve">convert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コンバート出力先</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[param_type]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[end]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[param_name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">key_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">key_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">key_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">key_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;json&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StreamingAssets/jsonsheet.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">json_test_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">json_test_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;enum&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StreamingAssets/jsonsheet.cs.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enum_item_type_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enum_item_type_2</t>
   </si>
   <si>
     <t xml:space="preserve">テストＪＳＯＮ</t>
   </si>
   <si>
-    <t xml:space="preserve">[paramtype]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
     <t xml:space="preserve">int</t>
   </si>
   <si>
     <t xml:space="preserve">-comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[end]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[paramname]</t>
-  </si>
-  <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
+    <t xml:space="preserve">item_type</t>
+  </si>
+  <si>
     <t xml:space="preserve">name</t>
   </si>
   <si>
@@ -76,12 +131,12 @@
     <t xml:space="preserve">value_3</t>
   </si>
   <si>
-    <t xml:space="preserve">*</t>
-  </si>
-  <si>
     <t xml:space="preserve">item_1</t>
   </si>
   <si>
+    <t xml:space="preserve">NormalItem</t>
+  </si>
+  <si>
     <t xml:space="preserve">アイテム１</t>
   </si>
   <si>
@@ -100,10 +155,70 @@
     <t xml:space="preserve">item_3</t>
   </si>
   <si>
+    <t xml:space="preserve">SpecialItem</t>
+  </si>
+  <si>
     <t xml:space="preserve">アイテム３</t>
   </si>
   <si>
     <t xml:space="preserve">説明３</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;namespace&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game.Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;enumname&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ItemType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アイテムタイプ（自動生成）。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;item&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エラー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">普通のアイテム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">すんごいアイテム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">連結</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AddType1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">追加のアイテム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AddType2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AddType3</t>
   </si>
 </sst>
 </file>
@@ -113,7 +228,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Microsoft YaHei"/>
@@ -193,8 +308,14 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +372,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF98F5FF"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC1CDCD"/>
         <bgColor rgb="FFDDDDDD"/>
       </patternFill>
@@ -366,7 +493,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -379,7 +506,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -388,6 +515,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -437,7 +572,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF98F5FF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -484,30 +619,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C6:P14"/>
+  <dimension ref="C6:J12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="6.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="6.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="5.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="33.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="1" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="11" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="10.96"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -519,6 +646,169 @@
       </c>
       <c r="E6" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E6:I6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C6:Q14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="6.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="6.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="9.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="5.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="1" width="10.96"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -531,6 +821,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="2" t="s">
@@ -543,288 +834,307 @@
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>14</v>
+      <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>99999</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="F10" s="5" t="n">
-        <v>99999</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="5" t="n">
+      <c r="N10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="O10" s="5" t="s">
-        <v>14</v>
+      <c r="P10" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="6" t="n">
         <v>999999</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="5" t="n">
+      <c r="H11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="5" t="n">
+      <c r="J11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="5" t="n">
+      <c r="L11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="6" t="n">
         <v>200</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" s="5" t="n">
+      <c r="N11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="6" t="n">
         <v>300</v>
       </c>
-      <c r="O11" s="5" t="s">
-        <v>14</v>
+      <c r="P11" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>14</v>
+      <c r="C12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="6" t="n">
         <v>99999999</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="5" t="n">
+      <c r="H13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="5" t="n">
+      <c r="J13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="6" t="n">
         <v>1000</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="5" t="n">
+      <c r="L13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="6" t="n">
         <v>2000</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N13" s="5" t="n">
+      <c r="N13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="6" t="n">
         <v>3000</v>
       </c>
-      <c r="O13" s="5" t="s">
-        <v>14</v>
+      <c r="P13" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -839,4 +1149,709 @@
     <oddFooter>&amp;C&amp;"Arial,標準"Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C6:Q14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R17" activeCellId="0" sqref="R17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="6.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="6.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="9.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="5.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="1" width="10.96"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="0"/>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>99999</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>999999</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>300</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>99999999</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F6:Q6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C6:G16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="8" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="10.96"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C6:G16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="8" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="10.96"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>